--- a/Gantt Chart v4.xlsx
+++ b/Gantt Chart v4.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="8_{B7394EC0-06B2-4DD5-8004-565DC1675EF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="21000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Important dates" sheetId="4" r:id="rId1"/>
@@ -6951,7 +6951,7 @@
         <v>45261</v>
       </c>
       <c r="D50" s="1">
-        <f>B50+C50</f>
+        <f t="shared" ref="D50:D59" si="2">B50+C50</f>
         <v>45261</v>
       </c>
     </row>
@@ -6965,7 +6965,7 @@
         <v>45275</v>
       </c>
       <c r="D51" s="1">
-        <f>B51+C51</f>
+        <f t="shared" si="2"/>
         <v>45275</v>
       </c>
     </row>
@@ -6979,7 +6979,7 @@
         <v>45280</v>
       </c>
       <c r="D52" s="1">
-        <f>B52+C52</f>
+        <f t="shared" si="2"/>
         <v>45280</v>
       </c>
     </row>
@@ -6993,7 +6993,7 @@
         <v>45294</v>
       </c>
       <c r="D53" s="1">
-        <f>B53+C53</f>
+        <f t="shared" si="2"/>
         <v>45294</v>
       </c>
     </row>
@@ -7007,7 +7007,7 @@
         <v>45320</v>
       </c>
       <c r="D54" s="1">
-        <f>B54+C54</f>
+        <f t="shared" si="2"/>
         <v>45320</v>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
         <v>45327</v>
       </c>
       <c r="D55" s="1">
-        <f>B55+C55</f>
+        <f t="shared" si="2"/>
         <v>45327</v>
       </c>
     </row>
@@ -7035,7 +7035,7 @@
         <v>45334</v>
       </c>
       <c r="D56" s="1">
-        <f>B56+C56</f>
+        <f t="shared" si="2"/>
         <v>45334</v>
       </c>
     </row>
@@ -7049,7 +7049,7 @@
         <v>45341</v>
       </c>
       <c r="D57" s="1">
-        <f>B57+C57</f>
+        <f t="shared" si="2"/>
         <v>45341</v>
       </c>
     </row>
@@ -7063,7 +7063,7 @@
         <v>45344</v>
       </c>
       <c r="D58" s="1">
-        <f>B58+C58</f>
+        <f t="shared" si="2"/>
         <v>45344</v>
       </c>
     </row>
@@ -7077,7 +7077,7 @@
         <v>45354</v>
       </c>
       <c r="D59" s="1">
-        <f>B59+C59</f>
+        <f t="shared" si="2"/>
         <v>45354</v>
       </c>
     </row>
